--- a/Inventario Pruebas Exploratorias.xlsx
+++ b/Inventario Pruebas Exploratorias.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnaLucía\OneDrive - Universidad de los Andes\PruebasAutomatizadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acastiblanco/Documents/Learning/MISO/Pruebas automatizadas de software/Entrega 5/E2E-Ghost-Kraken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_3C8DAA04DAC1F8524F0757ED30CB3AB235A8FE63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D03F8291-3AF3-44B9-8E4A-E2B15C77B4A8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC08850-F79D-FB41-8004-2DEA100FE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8535" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36460" yWindow="4940" windowWidth="36480" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios PE" sheetId="1" r:id="rId1"/>
     <sheet name="Lists" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Escenarios PE'!$B$9:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Escenarios PE'!$A$1:$J$65</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="186">
   <si>
     <t>PRUEBAS EXPLORATORIAS</t>
   </si>
@@ -57,10 +58,6 @@
   </si>
   <si>
     <t>Ambiente de pruebas</t>
-  </si>
-  <si>
-    <t>Tester Ana Lucia Forero: Chrome, 100.0.4896.60 (64bits), Windows 10 Home Single Language v21H1, Intel Core i3-4150T 3.00Ghz, 8.00 Gb RAM, Sistema operativo de 64 bits, viewport inicial=[width=device-width, initial-scale=1.0]
-Tester Anderson Castiblanco: Chrome Version 99.0.4844.83 (Official Build) (x86_64), macOS BigSur 11.6.4, Intel Core i7 2,6 GHz 6-core, 16 GB RAM, viewport inicial=[width=device-width, initial-scale=1.0].</t>
   </si>
   <si>
     <t>Escenarios de pruebas ejecutados</t>
@@ -338,13 +335,282 @@
   </si>
   <si>
     <t>Mix</t>
+  </si>
+  <si>
+    <t>PE-G15-0011</t>
+  </si>
+  <si>
+    <t>Marlon Agón</t>
+  </si>
+  <si>
+    <t>Crear Página</t>
+  </si>
+  <si>
+    <t>Crear página borrador</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/173FXc7TJlc9qUw0LrpVZGbhSCTtOhTK1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0012</t>
+  </si>
+  <si>
+    <t>Crear página borrador sin contenido</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lePlI2I5WwRzR5XLOVP89sRJeooJ7eVQ/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0013</t>
+  </si>
+  <si>
+    <t>Configurar Página</t>
+  </si>
+  <si>
+    <t>Configurar página - imagen/tag/extracto</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17xO_ouLW9X0WuF4eSSBVRGjWLd4qJbyV/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0014</t>
+  </si>
+  <si>
+    <t>Configurar página - tag no existe</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SEEViiA-GbFdZORZmqhdmvFglreVF8jI/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0015</t>
+  </si>
+  <si>
+    <t>Configurar página - configurar nuevo tag</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1iqOtOrGIrida18NBM1GdH2YAkGjDWpt0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0016</t>
+  </si>
+  <si>
+    <t>Listar Páginas</t>
+  </si>
+  <si>
+    <t>Listar páginas</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1D10BF-er6K2nZLOSRSjUl-7yTLMcqVIf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0017</t>
+  </si>
+  <si>
+    <t>Filtrar Páginas</t>
+  </si>
+  <si>
+    <t>Filtrar páginas - criterios estado, autor y tag</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YLU_kOhLxuX2C_LzaBIItasIFnX5nvXo/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0018</t>
+  </si>
+  <si>
+    <t>Filtrar páginas - criterios no aplican</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Bo_JUEJKaxvyyxTuYp9r5PnCbPZ0cC7x/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0019</t>
+  </si>
+  <si>
+    <t>Publicar Página inmediatamente</t>
+  </si>
+  <si>
+    <t>Publicar página</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1css11YBx8_WGWARoTO2cdsTYD4Muf0KE/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0021</t>
+  </si>
+  <si>
+    <t>Publicar Página programada</t>
+  </si>
+  <si>
+    <t>Publicar página programada</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HNs-iYXw_03ZA1PvnFQzRDxgGa2B1Ohc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0022</t>
+  </si>
+  <si>
+    <t>Publicar página programada menos 2 min</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Gx0n9jgWIMHVKXdusfSu469p4DeilwwR/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0023</t>
+  </si>
+  <si>
+    <t>Revisar Página</t>
+  </si>
+  <si>
+    <t>Revisar Página con tag</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/139ae8TZc9Jl4Sr9Ccwq0O5Fha4cyPuvm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0024</t>
+  </si>
+  <si>
+    <t>Revisar página con extracto</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ea4kTALj-0mE3dRtbSDIlgPNGLmGq9c9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0025</t>
+  </si>
+  <si>
+    <t>Activar miembros</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1E2egegh9ZMipWxIEyl0fJJmGGbn0R-Tf/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0026</t>
+  </si>
+  <si>
+    <t>Suscribir email</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zvHRWJwQsKA_rZbpCACuuneB6LWcqFCz/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Tester Ana Lucia Forero: Chrome, 100.0.4896.60 (64bits), Windows 10 Home Single Language v21H1, Intel Core i3-4150T 3.00Ghz, 8.00 Gb RAM, Sistema operativo de 64 bits, viewport inicial=[width=device-width, initial-scale=1.0]
+Tester Anderson Castiblanco: Chrome Version 99.0.4844.83 (Official Build) (x86_64), macOS BigSur 11.6.4, Intel Core i7 2,6 GHz 6-core, 16 GB RAM, viewport inicial=[width=device-width, initial-scale=1.0].
+Tester Marlon Agon Google Chrome, Versión 100.0.4896.60 (Build oficial) (64 bits) Microsoft Windows 10 Home Single Language, v10.0.19044 Sistema operativo de 64 bits, procesador x64, RAM Instalada 6,00 GB</t>
+  </si>
+  <si>
+    <t>PE-G15-0001</t>
+  </si>
+  <si>
+    <t>Cesar Solano</t>
+  </si>
+  <si>
+    <t>Listar Posts</t>
+  </si>
+  <si>
+    <t>Listar los post creados</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1PxG7OCc1S-vyCHBS8aqojRS-cXLWppXn/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0002</t>
+  </si>
+  <si>
+    <t>Listar posts sin haber creado ninguno</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18GoheNgpzm8bj8ZuBtj-746m4DRW_8u_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0003</t>
+  </si>
+  <si>
+    <t>Filtrar Posts</t>
+  </si>
+  <si>
+    <t>Filtrar post</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TRim7c0qymzbkucRob-OeVsY8hfAAw_w/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0004</t>
+  </si>
+  <si>
+    <t>Filtrar post con propiedades vacias</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Prk26Ma-OpNT5hnWfopMquENUa8w0xfC/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0005</t>
+  </si>
+  <si>
+    <t>Crear Post</t>
+  </si>
+  <si>
+    <t>Crear nuevo post</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1vbYzhHaDz5kIURICOf3nI89ZO8MiVBaA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0006</t>
+  </si>
+  <si>
+    <t>Crear post vacío</t>
+  </si>
+  <si>
+    <t>PE-G15-0007</t>
+  </si>
+  <si>
+    <t>Publicar Post inmediatamente</t>
+  </si>
+  <si>
+    <t>Publicar post de manera inmediata</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xAHUcddGYcWhfsYTCj-pTGROcuCicsNm/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0008</t>
+  </si>
+  <si>
+    <t>Publicar post vacío</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dHlCOzwxcvqGZ-MsNZNvnQGqM_uLNnfk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0009</t>
+  </si>
+  <si>
+    <t>Publicar Post programado</t>
+  </si>
+  <si>
+    <t>Publicar post programado</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ofby9L0Yjw-uUdBxjdYX_RLSunQ1DNfK/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>PE-G15-0010</t>
+  </si>
+  <si>
+    <t>Publicar post programado dentro de los siguientes 5 min</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JTI9pmW3audXPTh_jF7jbFyNw6wwcPFa/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -388,6 +654,18 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -415,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -473,17 +751,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -605,13 +872,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -632,7 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,89 +924,96 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -760,13 +1035,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1923676</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>373530</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>279455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1072,949 +1347,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="68" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
-    <col min="7" max="7" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="28.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="6"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="2:10" ht="23.1" customHeight="1">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="2:10" ht="30.95" customHeight="1">
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="2:10" ht="81.95" customHeight="1">
-      <c r="B6" s="2" t="s">
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:11" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="1"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="2:10" ht="24.95" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="2:10" ht="47.25">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="16" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="76.5">
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="C11" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" ht="60.75">
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" ht="61.5">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" ht="60.75">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="2:10" ht="90.75">
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="51"/>
+    </row>
+    <row r="15" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="90.75">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" ht="75.75">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="51"/>
+    </row>
+    <row r="17" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:11" ht="90.75">
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="51"/>
+    </row>
+    <row r="19" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="51"/>
+    </row>
+    <row r="21" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="45.75">
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="2:11" ht="45.75">
-      <c r="B19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="11">
-        <v>44653</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="2:11" ht="90.75">
-      <c r="B20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="14"/>
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="2:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="51"/>
+    </row>
+    <row r="23" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="11">
+        <v>44704</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="2:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="51"/>
+    </row>
+    <row r="25" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="51"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="14"/>
+      <c r="K26" s="51"/>
+    </row>
+    <row r="27" spans="2:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="11">
+        <v>44705</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="51"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" s="51"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="44"/>
+      <c r="C29" s="11">
         <v>52</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="60.75">
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" ht="90.75">
-      <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" ht="60.75">
-      <c r="B23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="11">
-        <v>44652</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="2:11" ht="75.75">
-      <c r="B24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="11">
-        <v>44653</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="30.75">
-      <c r="B25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="11">
-        <v>44653</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="11">
-        <v>44653</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="2:11" ht="61.5">
-      <c r="B27" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="20">
-        <v>44653</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="61.5" customHeight="1">
-      <c r="B28" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="44">
+      <c r="D29" s="47"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="51"/>
+    </row>
+    <row r="30" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B30" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="51"/>
+    </row>
+    <row r="31" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B31" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="K31" s="51"/>
+    </row>
+    <row r="32" spans="2:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="B32" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="51"/>
+    </row>
+    <row r="33" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B33" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="51"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="48"/>
+      <c r="K34" s="51"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35" s="48"/>
+      <c r="K35" s="51"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="48"/>
+      <c r="K36" s="51"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D37" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" s="48"/>
+      <c r="K37" s="51"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I38" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" s="50"/>
+      <c r="K38" s="51"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D39" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="48"/>
+      <c r="K39" s="51"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I40" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="J40" s="48"/>
+      <c r="K40" s="51"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="48"/>
+      <c r="K41" s="51"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="48"/>
+      <c r="K42" s="51"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="48"/>
+      <c r="K43" s="51"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="J44" s="48"/>
+      <c r="K44" s="51"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="50"/>
+      <c r="K45" s="51"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="50"/>
+      <c r="K46" s="51"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="50"/>
+      <c r="K47" s="51"/>
+    </row>
+    <row r="48" spans="2:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="B48" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="11">
+        <v>44706</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J48" s="50"/>
+      <c r="K48" s="51"/>
+    </row>
+    <row r="49" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B49" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="11">
         <v>44654</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="61.5" customHeight="1">
-      <c r="B29" s="41"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="45.75">
-      <c r="B30" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="24">
+      <c r="D49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J49" s="14"/>
+    </row>
+    <row r="50" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="11">
         <v>44654</v>
       </c>
-      <c r="D30" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="31" spans="2:11" ht="30.75">
-      <c r="B31" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="D50" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B51" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="11">
         <v>44654</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="2:11" ht="30.75">
-      <c r="B32" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="11">
+      <c r="D51" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J51" s="14"/>
+    </row>
+    <row r="52" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="11">
         <v>44654</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I32" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="11">
+      <c r="D52" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J52" s="14"/>
+    </row>
+    <row r="53" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B53" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="11">
         <v>44654</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="18" t="s">
+      <c r="D53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J53" s="14"/>
+    </row>
+    <row r="54" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="11">
+        <v>44654</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B55" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="11">
+        <v>44654</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J55" s="14"/>
+    </row>
+    <row r="56" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B56" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="11">
+        <v>44654</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B57" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="11">
+        <v>44654</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="2:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="B58" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="11">
+        <v>44654</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J58" s="14"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I33" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45" spans="2:10" ht="26.1" customHeight="1">
-      <c r="B45" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <autoFilter ref="B9:J58" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="56">
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B60:J60"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -2026,8 +2934,8 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2064,10 +2972,31 @@
     <hyperlink ref="I31" r:id="rId31" xr:uid="{45874CD5-7250-4DC5-8B88-5A94D2A95B36}"/>
     <hyperlink ref="I32" r:id="rId32" xr:uid="{1E15D58A-AE56-4481-8842-13AF3BB17DE1}"/>
     <hyperlink ref="I33" r:id="rId33" xr:uid="{A71EEE73-A5FB-4C3C-B963-F0DF8CF6FCFB}"/>
+    <hyperlink ref="I34" r:id="rId34" xr:uid="{01053B05-F818-EC43-A1DC-A45B29A4EA1F}"/>
+    <hyperlink ref="I35" r:id="rId35" xr:uid="{2951B764-BA30-9142-AF46-412858EDB5E2}"/>
+    <hyperlink ref="I36" r:id="rId36" xr:uid="{5A6EB3D8-A6A3-F544-82CF-545DD0D96A59}"/>
+    <hyperlink ref="I37" r:id="rId37" xr:uid="{FEEE6CC9-5E58-4943-B31C-0626C6D45908}"/>
+    <hyperlink ref="I38" r:id="rId38" xr:uid="{AAFED4CD-D922-8247-BC64-A3AD8B51E700}"/>
+    <hyperlink ref="I39" r:id="rId39" xr:uid="{D36AD1DC-8A12-E44F-AA11-0B85472518BD}"/>
+    <hyperlink ref="I40" r:id="rId40" xr:uid="{63118E8F-BC51-B344-B3D5-EA2911424706}"/>
+    <hyperlink ref="I41" r:id="rId41" xr:uid="{4A204080-AF00-574F-A1D7-9C585D161F1E}"/>
+    <hyperlink ref="I42" r:id="rId42" xr:uid="{680DF8B3-99B2-654A-8CDA-78DE2A8BF0CA}"/>
+    <hyperlink ref="I43" r:id="rId43" xr:uid="{0D9346AF-9191-8443-BCEF-DC16698FA3B4}"/>
+    <hyperlink ref="I44" r:id="rId44" xr:uid="{733504FE-54D3-324F-8860-9247F5F5A980}"/>
+    <hyperlink ref="I45" r:id="rId45" xr:uid="{0FEA31E8-D809-DC42-ACD0-AF1F05945DC3}"/>
+    <hyperlink ref="I46" r:id="rId46" xr:uid="{921923D2-F5D4-2A4F-91F2-35C6B5F9097A}"/>
+    <hyperlink ref="I47" r:id="rId47" xr:uid="{A635782B-672C-8945-8840-590684188DE8}"/>
+    <hyperlink ref="I48" r:id="rId48" xr:uid="{224E9BB5-10F1-344E-BE75-E8235BF00977}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{229886F4-B707-6E4F-8F48-819003B47086}"/>
+    <hyperlink ref="I52" r:id="rId50" xr:uid="{9F6DCA1C-719D-8D4B-AC53-3285D631FEAA}"/>
+    <hyperlink ref="I54" r:id="rId51" xr:uid="{1D02C8B5-3277-7949-A27E-0C513A1515A4}"/>
+    <hyperlink ref="I56" r:id="rId52" xr:uid="{DC172BC1-DADC-8540-BDE9-266E166CD04B}"/>
+    <hyperlink ref="I58" r:id="rId53" xr:uid="{3F92426F-775D-F848-8CF7-DCC1FFFF05CC}"/>
+    <hyperlink ref="I53" r:id="rId54" xr:uid="{80F95FF0-2513-AE4A-A7BD-5EE6C776BF03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId34"/>
+  <drawing r:id="rId55"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2075,13 +3004,13 @@
           <x14:formula1>
             <xm:f>Lists!$B$4:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F34:F36 F10:F28 F30</xm:sqref>
+          <xm:sqref>F30 F10:F28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Lists!$B$8:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>G34:G36 G10:G28 G30</xm:sqref>
+          <xm:sqref>G30 G10:G28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2097,41 +3026,41 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Inventario Pruebas Exploratorias.xlsx
+++ b/Inventario Pruebas Exploratorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acastiblanco/Documents/Learning/MISO/Pruebas automatizadas de software/Entrega 5/E2E-Ghost-Kraken/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC08850-F79D-FB41-8004-2DEA100FE970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E788FC61-9495-6C4F-8068-E9C949E734A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36460" yWindow="4940" windowWidth="36480" windowHeight="19340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1350,7 +1350,7 @@
   <dimension ref="B1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:J7"/>
+      <selection activeCell="C6" sqref="C6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
